--- a/fastqFiles/fastq_0647.xlsx
+++ b/fastqFiles/fastq_0647.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD3FA7D-F458-AD45-ABC7-176712F7F322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3D7E2-7E71-0C40-8A7C-4325D29062B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>libraryDate</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B19 E2:E19"/>
+      <selection activeCell="D20" sqref="D20:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -503,7 +506,7 @@
         <v>647</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -523,7 +526,7 @@
         <v>647</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -543,7 +546,7 @@
         <v>647</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -563,7 +566,7 @@
         <v>647</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -583,7 +586,7 @@
         <v>647</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -603,7 +606,7 @@
         <v>647</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -623,7 +626,7 @@
         <v>647</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -643,7 +646,7 @@
         <v>647</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -663,7 +666,7 @@
         <v>647</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -683,7 +686,7 @@
         <v>647</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -703,7 +706,7 @@
         <v>647</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -723,7 +726,7 @@
         <v>647</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -743,7 +746,7 @@
         <v>647</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -763,7 +766,7 @@
         <v>647</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -783,7 +786,7 @@
         <v>647</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -803,7 +806,7 @@
         <v>647</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -823,7 +826,7 @@
         <v>647</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -843,7 +846,7 @@
         <v>647</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>

--- a/fastqFiles/fastq_0647.xlsx
+++ b/fastqFiles/fastq_0647.xlsx
@@ -49,58 +49,58 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_GAGTACG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_ACAGATA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_CTCAATG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_AAATGCA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_ACGCGGG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_GGAGTCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_CGTCGCT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_TCAACTG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_TGTTTGT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_TACATGG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_GTTCTCA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_CTGGTGG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_TGCCCAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_AAACCTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_ACCATAC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_AATACGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_CGCTACA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0647_samples/s_6_withindex_sequence_TGGCATA.fastq.gz</t>
+    <t xml:space="preserve">s_6_withindex_sequence_GAGTACG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_ACAGATA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_CTCAATG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_AAATGCA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_ACGCGGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_GGAGTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_CGTCGCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_TCAACTG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_TGTTTGT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_TACATGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_GTTCTCA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_CTGGTGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_TGCCCAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_AAACCTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_ACCATAC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_AATACGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_CGCTACA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_6_withindex_sequence_TGGCATA.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C19"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0647.xlsx
+++ b/fastqFiles/fastq_0647.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">

--- a/fastqFiles/fastq_0647.xlsx
+++ b/fastqFiles/fastq_0647.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">s_6_withindex_sequence_CGCTACA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10]</t>
   </si>
   <si>
     <t xml:space="preserve">s_6_withindex_sequence_TGGCATA.fastq.gz</t>
@@ -213,12 +216,15 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="74.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="69.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,8 +625,8 @@
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>10</v>
+      <c r="I18" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>19</v>
